--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -992,7 +992,11 @@
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C35" s="10" t="inlineStr"/>
+      <c r="C35" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D35" s="14" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -157,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -198,6 +198,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -576,6 +579,16 @@
           <t>Tugas 2</t>
         </is>
       </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>Tugas 3</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Tugas 4</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="12" t="n"/>
@@ -590,6 +603,16 @@
           <t>PJOK1</t>
         </is>
       </c>
+      <c r="E2" s="13" t="inlineStr">
+        <is>
+          <t>PKN5</t>
+        </is>
+      </c>
+      <c r="F2" s="13" t="inlineStr">
+        <is>
+          <t>PAI9</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="10" t="n">
@@ -602,6 +625,12 @@
       </c>
       <c r="C3" s="10" t="inlineStr"/>
       <c r="D3" s="14" t="inlineStr"/>
+      <c r="E3" s="10" t="inlineStr"/>
+      <c r="F3" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="10" t="n">
@@ -614,6 +643,8 @@
       </c>
       <c r="C4" s="10" t="inlineStr"/>
       <c r="D4" s="14" t="inlineStr"/>
+      <c r="E4" s="10" t="inlineStr"/>
+      <c r="F4" s="14" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="10" t="n">
@@ -626,6 +657,12 @@
       </c>
       <c r="C5" s="10" t="inlineStr"/>
       <c r="D5" s="14" t="inlineStr"/>
+      <c r="E5" s="10" t="inlineStr"/>
+      <c r="F5" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="10" t="n">
@@ -638,6 +675,8 @@
       </c>
       <c r="C6" s="10" t="inlineStr"/>
       <c r="D6" s="14" t="inlineStr"/>
+      <c r="E6" s="10" t="inlineStr"/>
+      <c r="F6" s="14" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="10" t="n">
@@ -650,6 +689,12 @@
       </c>
       <c r="C7" s="10" t="inlineStr"/>
       <c r="D7" s="14" t="inlineStr"/>
+      <c r="E7" s="10" t="inlineStr"/>
+      <c r="F7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="10" t="n">
@@ -662,6 +707,8 @@
       </c>
       <c r="C8" s="10" t="inlineStr"/>
       <c r="D8" s="14" t="inlineStr"/>
+      <c r="E8" s="10" t="inlineStr"/>
+      <c r="F8" s="14" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="10" t="n">
@@ -674,6 +721,12 @@
       </c>
       <c r="C9" s="10" t="inlineStr"/>
       <c r="D9" s="14" t="inlineStr"/>
+      <c r="E9" s="10" t="inlineStr"/>
+      <c r="F9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="10" t="n">
@@ -686,6 +739,8 @@
       </c>
       <c r="C10" s="10" t="inlineStr"/>
       <c r="D10" s="14" t="inlineStr"/>
+      <c r="E10" s="10" t="inlineStr"/>
+      <c r="F10" s="14" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="10" t="n">
@@ -702,6 +757,16 @@
         </is>
       </c>
       <c r="D11" s="14" t="inlineStr"/>
+      <c r="E11" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="10" t="n">
@@ -714,6 +779,8 @@
       </c>
       <c r="C12" s="10" t="inlineStr"/>
       <c r="D12" s="14" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr"/>
+      <c r="F12" s="14" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="10" t="n">
@@ -726,6 +793,8 @@
       </c>
       <c r="C13" s="10" t="inlineStr"/>
       <c r="D13" s="14" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr"/>
+      <c r="F13" s="14" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="10" t="n">
@@ -738,6 +807,8 @@
       </c>
       <c r="C14" s="10" t="inlineStr"/>
       <c r="D14" s="14" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr"/>
+      <c r="F14" s="14" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="10" t="n">
@@ -750,6 +821,12 @@
       </c>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="14" t="inlineStr"/>
+      <c r="E15" s="10" t="inlineStr"/>
+      <c r="F15" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="10" t="n">
@@ -762,6 +839,8 @@
       </c>
       <c r="C16" s="10" t="inlineStr"/>
       <c r="D16" s="14" t="inlineStr"/>
+      <c r="E16" s="10" t="inlineStr"/>
+      <c r="F16" s="14" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="10" t="n">
@@ -774,6 +853,8 @@
       </c>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="14" t="inlineStr"/>
+      <c r="E17" s="10" t="inlineStr"/>
+      <c r="F17" s="14" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="10" t="n">
@@ -786,6 +867,12 @@
       </c>
       <c r="C18" s="10" t="inlineStr"/>
       <c r="D18" s="14" t="inlineStr"/>
+      <c r="E18" s="10" t="inlineStr"/>
+      <c r="F18" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="10" t="n">
@@ -798,6 +885,8 @@
       </c>
       <c r="C19" s="10" t="inlineStr"/>
       <c r="D19" s="14" t="inlineStr"/>
+      <c r="E19" s="10" t="inlineStr"/>
+      <c r="F19" s="14" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="10" t="n">
@@ -810,6 +899,16 @@
       </c>
       <c r="C20" s="10" t="inlineStr"/>
       <c r="D20" s="14" t="inlineStr"/>
+      <c r="E20" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F20" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="10" t="n">
@@ -822,6 +921,8 @@
       </c>
       <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="14" t="inlineStr"/>
+      <c r="E21" s="10" t="inlineStr"/>
+      <c r="F21" s="14" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="10" t="n">
@@ -834,6 +935,8 @@
       </c>
       <c r="C22" s="10" t="inlineStr"/>
       <c r="D22" s="14" t="inlineStr"/>
+      <c r="E22" s="10" t="inlineStr"/>
+      <c r="F22" s="14" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="10" t="n">
@@ -846,6 +949,8 @@
       </c>
       <c r="C23" s="10" t="inlineStr"/>
       <c r="D23" s="14" t="inlineStr"/>
+      <c r="E23" s="10" t="inlineStr"/>
+      <c r="F23" s="14" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="10" t="n">
@@ -858,6 +963,12 @@
       </c>
       <c r="C24" s="10" t="inlineStr"/>
       <c r="D24" s="14" t="inlineStr"/>
+      <c r="E24" s="10" t="inlineStr"/>
+      <c r="F24" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="10" t="n">
@@ -874,6 +985,16 @@
         </is>
       </c>
       <c r="D25" s="14" t="inlineStr"/>
+      <c r="E25" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F25" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="10" t="n">
@@ -886,6 +1007,8 @@
       </c>
       <c r="C26" s="10" t="inlineStr"/>
       <c r="D26" s="14" t="inlineStr"/>
+      <c r="E26" s="10" t="inlineStr"/>
+      <c r="F26" s="14" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="10" t="n">
@@ -898,6 +1021,8 @@
       </c>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="14" t="inlineStr"/>
+      <c r="E27" s="10" t="inlineStr"/>
+      <c r="F27" s="14" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="10" t="n">
@@ -910,6 +1035,8 @@
       </c>
       <c r="C28" s="10" t="inlineStr"/>
       <c r="D28" s="14" t="inlineStr"/>
+      <c r="E28" s="10" t="inlineStr"/>
+      <c r="F28" s="14" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="10" t="n">
@@ -922,6 +1049,8 @@
       </c>
       <c r="C29" s="10" t="inlineStr"/>
       <c r="D29" s="14" t="inlineStr"/>
+      <c r="E29" s="10" t="inlineStr"/>
+      <c r="F29" s="14" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="10" t="n">
@@ -934,6 +1063,8 @@
       </c>
       <c r="C30" s="10" t="inlineStr"/>
       <c r="D30" s="14" t="inlineStr"/>
+      <c r="E30" s="10" t="inlineStr"/>
+      <c r="F30" s="14" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="10" t="n">
@@ -944,8 +1075,18 @@
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="10" t="inlineStr"/>
+      <c r="C31" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D31" s="14" t="inlineStr"/>
+      <c r="E31" s="10" t="inlineStr"/>
+      <c r="F31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="10" t="n">
@@ -958,6 +1099,8 @@
       </c>
       <c r="C32" s="10" t="inlineStr"/>
       <c r="D32" s="14" t="inlineStr"/>
+      <c r="E32" s="10" t="inlineStr"/>
+      <c r="F32" s="14" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="10" t="n">
@@ -970,6 +1113,12 @@
       </c>
       <c r="C33" s="10" t="inlineStr"/>
       <c r="D33" s="14" t="inlineStr"/>
+      <c r="E33" s="10" t="inlineStr"/>
+      <c r="F33" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="10" t="n">
@@ -982,6 +1131,12 @@
       </c>
       <c r="C34" s="10" t="inlineStr"/>
       <c r="D34" s="14" t="inlineStr"/>
+      <c r="E34" s="10" t="inlineStr"/>
+      <c r="F34" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="10" t="n">
@@ -998,6 +1153,16 @@
         </is>
       </c>
       <c r="D35" s="14" t="inlineStr"/>
+      <c r="E35" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F35" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="10" t="n">
@@ -1010,6 +1175,12 @@
       </c>
       <c r="C36" s="10" t="inlineStr"/>
       <c r="D36" s="14" t="inlineStr"/>
+      <c r="E36" s="10" t="inlineStr"/>
+      <c r="F36" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="10" t="n">
@@ -1022,6 +1193,8 @@
       </c>
       <c r="C37" s="10" t="inlineStr"/>
       <c r="D37" s="14" t="inlineStr"/>
+      <c r="E37" s="10" t="inlineStr"/>
+      <c r="F37" s="14" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -644,7 +644,11 @@
       <c r="C4" s="10" t="inlineStr"/>
       <c r="D4" s="14" t="inlineStr"/>
       <c r="E4" s="10" t="inlineStr"/>
-      <c r="F4" s="14" t="inlineStr"/>
+      <c r="F4" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="10" t="n">
@@ -867,7 +871,11 @@
       </c>
       <c r="C18" s="10" t="inlineStr"/>
       <c r="D18" s="14" t="inlineStr"/>
-      <c r="E18" s="10" t="inlineStr"/>
+      <c r="E18" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F18" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1050,7 +1058,11 @@
       <c r="C29" s="10" t="inlineStr"/>
       <c r="D29" s="14" t="inlineStr"/>
       <c r="E29" s="10" t="inlineStr"/>
-      <c r="F29" s="14" t="inlineStr"/>
+      <c r="F29" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="10" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -546,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -589,6 +589,11 @@
           <t>Tugas 4</t>
         </is>
       </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Tugas 5</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="12" t="n"/>
@@ -613,6 +618,11 @@
           <t>PAI9</t>
         </is>
       </c>
+      <c r="G2" s="13" t="inlineStr">
+        <is>
+          <t>BING6</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="10" t="n">
@@ -631,6 +641,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G3" s="10" t="inlineStr"/>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="10" t="n">
@@ -649,6 +660,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G4" s="10" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="10" t="n">
@@ -667,6 +679,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G5" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="10" t="n">
@@ -681,6 +698,7 @@
       <c r="D6" s="14" t="inlineStr"/>
       <c r="E6" s="10" t="inlineStr"/>
       <c r="F6" s="14" t="inlineStr"/>
+      <c r="G6" s="10" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="10" t="n">
@@ -699,6 +717,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G7" s="10" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="10" t="n">
@@ -713,6 +732,7 @@
       <c r="D8" s="14" t="inlineStr"/>
       <c r="E8" s="10" t="inlineStr"/>
       <c r="F8" s="14" t="inlineStr"/>
+      <c r="G8" s="10" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="10" t="n">
@@ -731,6 +751,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G9" s="10" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="10" t="n">
@@ -745,6 +766,7 @@
       <c r="D10" s="14" t="inlineStr"/>
       <c r="E10" s="10" t="inlineStr"/>
       <c r="F10" s="14" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="10" t="n">
@@ -771,6 +793,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G11" s="10" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="10" t="n">
@@ -785,6 +808,7 @@
       <c r="D12" s="14" t="inlineStr"/>
       <c r="E12" s="10" t="inlineStr"/>
       <c r="F12" s="14" t="inlineStr"/>
+      <c r="G12" s="10" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="10" t="n">
@@ -795,10 +819,23 @@
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C13" s="10" t="inlineStr"/>
+      <c r="C13" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D13" s="14" t="inlineStr"/>
-      <c r="E13" s="10" t="inlineStr"/>
-      <c r="F13" s="14" t="inlineStr"/>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F13" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G13" s="10" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="10" t="n">
@@ -809,10 +846,27 @@
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="10" t="inlineStr"/>
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D14" s="14" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr"/>
-      <c r="F14" s="14" t="inlineStr"/>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F14" s="14" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
+      <c r="G14" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="10" t="n">
@@ -831,6 +885,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G15" s="10" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="10" t="n">
@@ -845,6 +900,7 @@
       <c r="D16" s="14" t="inlineStr"/>
       <c r="E16" s="10" t="inlineStr"/>
       <c r="F16" s="14" t="inlineStr"/>
+      <c r="G16" s="10" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="10" t="n">
@@ -859,6 +915,7 @@
       <c r="D17" s="14" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
       <c r="F17" s="14" t="inlineStr"/>
+      <c r="G17" s="10" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="10" t="n">
@@ -881,6 +938,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G18" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="10" t="n">
@@ -894,7 +956,12 @@
       <c r="C19" s="10" t="inlineStr"/>
       <c r="D19" s="14" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
-      <c r="F19" s="14" t="inlineStr"/>
+      <c r="F19" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G19" s="10" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="10" t="n">
@@ -917,6 +984,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G20" s="10" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="10" t="n">
@@ -927,10 +995,19 @@
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C21" s="10" t="inlineStr"/>
+      <c r="C21" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D21" s="14" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
-      <c r="F21" s="14" t="inlineStr"/>
+      <c r="F21" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G21" s="10" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="10" t="n">
@@ -945,6 +1022,7 @@
       <c r="D22" s="14" t="inlineStr"/>
       <c r="E22" s="10" t="inlineStr"/>
       <c r="F22" s="14" t="inlineStr"/>
+      <c r="G22" s="10" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="10" t="n">
@@ -959,6 +1037,7 @@
       <c r="D23" s="14" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="14" t="inlineStr"/>
+      <c r="G23" s="10" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="10" t="n">
@@ -977,6 +1056,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G24" s="10" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="10" t="n">
@@ -1003,6 +1083,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G25" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="10" t="n">
@@ -1016,7 +1101,12 @@
       <c r="C26" s="10" t="inlineStr"/>
       <c r="D26" s="14" t="inlineStr"/>
       <c r="E26" s="10" t="inlineStr"/>
-      <c r="F26" s="14" t="inlineStr"/>
+      <c r="F26" s="14" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
+      <c r="G26" s="10" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="10" t="n">
@@ -1030,7 +1120,12 @@
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="14" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
-      <c r="F27" s="14" t="inlineStr"/>
+      <c r="F27" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G27" s="10" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="10" t="n">
@@ -1044,7 +1139,12 @@
       <c r="C28" s="10" t="inlineStr"/>
       <c r="D28" s="14" t="inlineStr"/>
       <c r="E28" s="10" t="inlineStr"/>
-      <c r="F28" s="14" t="inlineStr"/>
+      <c r="F28" s="14" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
+      <c r="G28" s="10" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="10" t="n">
@@ -1063,6 +1163,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G29" s="10" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="10" t="n">
@@ -1077,6 +1178,7 @@
       <c r="D30" s="14" t="inlineStr"/>
       <c r="E30" s="10" t="inlineStr"/>
       <c r="F30" s="14" t="inlineStr"/>
+      <c r="G30" s="10" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="10" t="n">
@@ -1095,6 +1197,11 @@
       <c r="D31" s="14" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
       <c r="F31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G31" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1113,6 +1220,7 @@
       <c r="D32" s="14" t="inlineStr"/>
       <c r="E32" s="10" t="inlineStr"/>
       <c r="F32" s="14" t="inlineStr"/>
+      <c r="G32" s="10" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="10" t="n">
@@ -1131,6 +1239,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G33" s="10" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="10" t="n">
@@ -1143,12 +1252,17 @@
       </c>
       <c r="C34" s="10" t="inlineStr"/>
       <c r="D34" s="14" t="inlineStr"/>
-      <c r="E34" s="10" t="inlineStr"/>
+      <c r="E34" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F34" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
+      <c r="G34" s="10" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="10" t="n">
@@ -1171,6 +1285,11 @@
         </is>
       </c>
       <c r="F35" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G35" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1193,6 +1312,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G36" s="10" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="10" t="n">
@@ -1206,7 +1326,12 @@
       <c r="C37" s="10" t="inlineStr"/>
       <c r="D37" s="14" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
-      <c r="F37" s="14" t="inlineStr"/>
+      <c r="F37" s="14" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
+      <c r="G37" s="10" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -660,7 +660,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G4" s="10" t="inlineStr"/>
+      <c r="G4" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="10" t="n">
@@ -1138,7 +1142,11 @@
       </c>
       <c r="C28" s="10" t="inlineStr"/>
       <c r="D28" s="14" t="inlineStr"/>
-      <c r="E28" s="10" t="inlineStr"/>
+      <c r="E28" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F28" s="14" t="inlineStr">
         <is>
           <t>NON-MUS</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -25,6 +25,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Wingdings"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="12"/>
     </font>
@@ -36,10 +40,6 @@
     <font>
       <name val="Calibri"/>
       <sz val="14"/>
-    </font>
-    <font>
-      <name val="Wingdings"/>
-      <sz val="12"/>
     </font>
     <font>
       <sz val="12"/>
@@ -70,7 +70,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -104,6 +104,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -157,50 +170,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,248 +564,291 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="4.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="39.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Nama Siswa</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Tugas 1</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>Tugas 2</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>Tugas 3</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>Tugas 4</t>
         </is>
       </c>
-      <c r="G1" s="9" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>Tugas 5</t>
         </is>
       </c>
+      <c r="H1" s="10" t="inlineStr">
+        <is>
+          <t>Tugas 6</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="12" t="n"/>
-      <c r="B2" s="12" t="n"/>
-      <c r="C2" s="13" t="inlineStr">
+      <c r="A2" s="13" t="n"/>
+      <c r="B2" s="13" t="n"/>
+      <c r="C2" s="14" t="inlineStr">
         <is>
           <t>MAT9</t>
         </is>
       </c>
-      <c r="D2" s="13" t="inlineStr">
+      <c r="D2" s="14" t="inlineStr">
         <is>
           <t>PJOK1</t>
         </is>
       </c>
-      <c r="E2" s="13" t="inlineStr">
+      <c r="E2" s="14" t="inlineStr">
         <is>
           <t>PKN5</t>
         </is>
       </c>
-      <c r="F2" s="13" t="inlineStr">
+      <c r="F2" s="14" t="inlineStr">
         <is>
           <t>PAI9</t>
         </is>
       </c>
-      <c r="G2" s="13" t="inlineStr">
+      <c r="G2" s="14" t="inlineStr">
         <is>
           <t>BING6</t>
         </is>
       </c>
+      <c r="H2" s="14" t="inlineStr">
+        <is>
+          <t>PKK5</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="inlineStr">
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="10" t="inlineStr"/>
-      <c r="D3" s="14" t="inlineStr"/>
-      <c r="E3" s="10" t="inlineStr"/>
+      <c r="C3" s="11" t="inlineStr"/>
+      <c r="D3" s="15" t="inlineStr"/>
+      <c r="E3" s="11" t="inlineStr"/>
       <c r="F3" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="G3" s="10" t="inlineStr"/>
+      <c r="G3" s="11" t="inlineStr"/>
+      <c r="H3" s="15" t="inlineStr"/>
     </row>
     <row r="4" ht="15.6" customHeight="1">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr"/>
-      <c r="D4" s="14" t="inlineStr"/>
-      <c r="E4" s="10" t="inlineStr"/>
+      <c r="C4" s="11" t="inlineStr"/>
+      <c r="D4" s="15" t="inlineStr"/>
+      <c r="E4" s="11" t="inlineStr"/>
       <c r="F4" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="G4" s="15" t="inlineStr">
+      <c r="G4" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H4" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
-      <c r="A5" s="10" t="n">
+      <c r="A5" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr"/>
-      <c r="D5" s="14" t="inlineStr"/>
-      <c r="E5" s="10" t="inlineStr"/>
+      <c r="C5" s="11" t="inlineStr"/>
+      <c r="D5" s="15" t="inlineStr"/>
+      <c r="E5" s="11" t="inlineStr"/>
       <c r="F5" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="G5" s="15" t="inlineStr">
+      <c r="G5" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H5" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
-      <c r="A6" s="10" t="n">
+      <c r="A6" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>Arif Fathurrahman</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr"/>
-      <c r="D6" s="14" t="inlineStr"/>
-      <c r="E6" s="10" t="inlineStr"/>
-      <c r="F6" s="14" t="inlineStr"/>
-      <c r="G6" s="10" t="inlineStr"/>
+      <c r="C6" s="11" t="inlineStr"/>
+      <c r="D6" s="15" t="inlineStr"/>
+      <c r="E6" s="11" t="inlineStr"/>
+      <c r="F6" s="15" t="inlineStr"/>
+      <c r="G6" s="11" t="inlineStr"/>
+      <c r="H6" s="15" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
-      <c r="A7" s="10" t="n">
+      <c r="A7" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="inlineStr">
+      <c r="B7" s="12" t="inlineStr">
         <is>
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="10" t="inlineStr"/>
-      <c r="D7" s="14" t="inlineStr"/>
-      <c r="E7" s="10" t="inlineStr"/>
+      <c r="C7" s="11" t="inlineStr"/>
+      <c r="D7" s="15" t="inlineStr"/>
+      <c r="E7" s="11" t="inlineStr"/>
       <c r="F7" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="G7" s="10" t="inlineStr"/>
+      <c r="G7" s="11" t="inlineStr"/>
+      <c r="H7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
-      <c r="A8" s="10" t="n">
+      <c r="A8" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>Cleolia Jasmine Nasution</t>
         </is>
       </c>
-      <c r="C8" s="10" t="inlineStr"/>
-      <c r="D8" s="14" t="inlineStr"/>
-      <c r="E8" s="10" t="inlineStr"/>
-      <c r="F8" s="14" t="inlineStr"/>
-      <c r="G8" s="10" t="inlineStr"/>
+      <c r="C8" s="11" t="inlineStr"/>
+      <c r="D8" s="15" t="inlineStr"/>
+      <c r="E8" s="11" t="inlineStr"/>
+      <c r="F8" s="15" t="inlineStr"/>
+      <c r="G8" s="11" t="inlineStr"/>
+      <c r="H8" s="15" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
-      <c r="A9" s="10" t="n">
+      <c r="A9" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="inlineStr">
+      <c r="B9" s="12" t="inlineStr">
         <is>
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr"/>
-      <c r="D9" s="14" t="inlineStr"/>
-      <c r="E9" s="10" t="inlineStr"/>
+      <c r="C9" s="11" t="inlineStr"/>
+      <c r="D9" s="15" t="inlineStr"/>
+      <c r="E9" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F9" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="G9" s="10" t="inlineStr"/>
+      <c r="G9" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
-      <c r="A10" s="10" t="n">
+      <c r="A10" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>Dinda Fatchus Sabila Fa'izatur Rahmah</t>
         </is>
       </c>
-      <c r="C10" s="10" t="inlineStr"/>
-      <c r="D10" s="14" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr"/>
-      <c r="F10" s="14" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr"/>
+      <c r="C10" s="11" t="inlineStr"/>
+      <c r="D10" s="15" t="inlineStr"/>
+      <c r="E10" s="11" t="inlineStr"/>
+      <c r="F10" s="15" t="inlineStr"/>
+      <c r="G10" s="11" t="inlineStr"/>
+      <c r="H10" s="15" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="10" t="n">
+      <c r="A11" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="inlineStr">
+      <c r="B11" s="12" t="inlineStr">
         <is>
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D11" s="14" t="inlineStr"/>
-      <c r="E11" s="15" t="inlineStr">
+      <c r="C11" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D11" s="15" t="inlineStr"/>
+      <c r="E11" s="17" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -797,39 +858,49 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G11" s="10" t="inlineStr"/>
+      <c r="G11" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="10" t="n">
+      <c r="A12" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="inlineStr">
+      <c r="B12" s="12" t="inlineStr">
         <is>
           <t>Farhan Nur Aliani</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr"/>
-      <c r="D12" s="14" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr"/>
-      <c r="F12" s="14" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr"/>
+      <c r="C12" s="11" t="inlineStr"/>
+      <c r="D12" s="15" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr"/>
+      <c r="F12" s="15" t="inlineStr"/>
+      <c r="G12" s="11" t="inlineStr"/>
+      <c r="H12" s="15" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="10" t="n">
+      <c r="A13" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="inlineStr">
+      <c r="B13" s="12" t="inlineStr">
         <is>
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C13" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D13" s="14" t="inlineStr"/>
-      <c r="E13" s="15" t="inlineStr">
+      <c r="C13" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D13" s="15" t="inlineStr"/>
+      <c r="E13" s="17" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -839,100 +910,117 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G13" s="10" t="inlineStr"/>
+      <c r="G13" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H13" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="10" t="n">
+      <c r="A14" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="inlineStr">
+      <c r="B14" s="12" t="inlineStr">
         <is>
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D14" s="14" t="inlineStr"/>
-      <c r="E14" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F14" s="14" t="inlineStr">
+      <c r="C14" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr"/>
+      <c r="E14" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G14" s="15" t="inlineStr">
+      <c r="G14" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H14" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="10" t="n">
+      <c r="A15" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="inlineStr">
+      <c r="B15" s="12" t="inlineStr">
         <is>
           <t>Mohammad Ilham Saputra</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr"/>
-      <c r="D15" s="14" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr"/>
+      <c r="C15" s="11" t="inlineStr"/>
+      <c r="D15" s="15" t="inlineStr"/>
+      <c r="E15" s="11" t="inlineStr"/>
       <c r="F15" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="G15" s="10" t="inlineStr"/>
+      <c r="G15" s="11" t="inlineStr"/>
+      <c r="H15" s="15" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="10" t="n">
+      <c r="A16" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="11" t="inlineStr">
+      <c r="B16" s="12" t="inlineStr">
         <is>
           <t>Muhammad Akbar Ariq Jeconia Lesmana</t>
         </is>
       </c>
-      <c r="C16" s="10" t="inlineStr"/>
-      <c r="D16" s="14" t="inlineStr"/>
-      <c r="E16" s="10" t="inlineStr"/>
-      <c r="F16" s="14" t="inlineStr"/>
-      <c r="G16" s="10" t="inlineStr"/>
+      <c r="C16" s="11" t="inlineStr"/>
+      <c r="D16" s="15" t="inlineStr"/>
+      <c r="E16" s="11" t="inlineStr"/>
+      <c r="F16" s="15" t="inlineStr"/>
+      <c r="G16" s="11" t="inlineStr"/>
+      <c r="H16" s="15" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" s="10" t="n">
+      <c r="A17" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="inlineStr">
+      <c r="B17" s="12" t="inlineStr">
         <is>
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C17" s="10" t="inlineStr"/>
-      <c r="D17" s="14" t="inlineStr"/>
-      <c r="E17" s="10" t="inlineStr"/>
-      <c r="F17" s="14" t="inlineStr"/>
-      <c r="G17" s="10" t="inlineStr"/>
+      <c r="C17" s="11" t="inlineStr"/>
+      <c r="D17" s="15" t="inlineStr"/>
+      <c r="E17" s="11" t="inlineStr"/>
+      <c r="F17" s="15" t="inlineStr"/>
+      <c r="G17" s="11" t="inlineStr"/>
+      <c r="H17" s="15" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
-      <c r="A18" s="10" t="n">
+      <c r="A18" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="11" t="inlineStr">
+      <c r="B18" s="12" t="inlineStr">
         <is>
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C18" s="10" t="inlineStr"/>
-      <c r="D18" s="14" t="inlineStr"/>
-      <c r="E18" s="15" t="inlineStr">
+      <c r="C18" s="11" t="inlineStr"/>
+      <c r="D18" s="15" t="inlineStr"/>
+      <c r="E18" s="17" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -942,43 +1030,53 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G18" s="15" t="inlineStr">
+      <c r="G18" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H18" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
-      <c r="A19" s="10" t="n">
+      <c r="A19" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="inlineStr">
+      <c r="B19" s="12" t="inlineStr">
         <is>
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="10" t="inlineStr"/>
-      <c r="D19" s="14" t="inlineStr"/>
-      <c r="E19" s="10" t="inlineStr"/>
+      <c r="C19" s="11" t="inlineStr"/>
+      <c r="D19" s="15" t="inlineStr"/>
+      <c r="E19" s="11" t="inlineStr"/>
       <c r="F19" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="G19" s="10" t="inlineStr"/>
+      <c r="G19" s="11" t="inlineStr"/>
+      <c r="H19" s="15" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
-      <c r="A20" s="10" t="n">
+      <c r="A20" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="inlineStr">
+      <c r="B20" s="12" t="inlineStr">
         <is>
           <t>Muhammad Ilham Dzaki</t>
         </is>
       </c>
-      <c r="C20" s="10" t="inlineStr"/>
-      <c r="D20" s="14" t="inlineStr"/>
-      <c r="E20" s="15" t="inlineStr">
+      <c r="C20" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D20" s="15" t="inlineStr"/>
+      <c r="E20" s="17" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -988,96 +1086,125 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G20" s="10" t="inlineStr"/>
+      <c r="G20" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H20" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.6" customHeight="1">
-      <c r="A21" s="10" t="n">
+      <c r="A21" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="11" t="inlineStr">
+      <c r="B21" s="12" t="inlineStr">
         <is>
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C21" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D21" s="14" t="inlineStr"/>
-      <c r="E21" s="10" t="inlineStr"/>
+      <c r="C21" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D21" s="15" t="inlineStr"/>
+      <c r="E21" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F21" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="G21" s="10" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr"/>
+      <c r="H21" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15.6" customHeight="1">
-      <c r="A22" s="10" t="n">
+      <c r="A22" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="11" t="inlineStr">
+      <c r="B22" s="12" t="inlineStr">
         <is>
           <t>Muhammad Saputra</t>
         </is>
       </c>
-      <c r="C22" s="10" t="inlineStr"/>
-      <c r="D22" s="14" t="inlineStr"/>
-      <c r="E22" s="10" t="inlineStr"/>
-      <c r="F22" s="14" t="inlineStr"/>
-      <c r="G22" s="10" t="inlineStr"/>
+      <c r="C22" s="11" t="inlineStr"/>
+      <c r="D22" s="15" t="inlineStr"/>
+      <c r="E22" s="11" t="inlineStr"/>
+      <c r="F22" s="15" t="inlineStr"/>
+      <c r="G22" s="11" t="inlineStr"/>
+      <c r="H22" s="15" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="10" t="n">
+      <c r="A23" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="11" t="inlineStr">
+      <c r="B23" s="12" t="inlineStr">
         <is>
           <t>Muhammad Yusuf</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr"/>
-      <c r="D23" s="14" t="inlineStr"/>
-      <c r="E23" s="10" t="inlineStr"/>
-      <c r="F23" s="14" t="inlineStr"/>
-      <c r="G23" s="10" t="inlineStr"/>
+      <c r="C23" s="11" t="inlineStr"/>
+      <c r="D23" s="15" t="inlineStr"/>
+      <c r="E23" s="11" t="inlineStr"/>
+      <c r="F23" s="15" t="inlineStr"/>
+      <c r="G23" s="11" t="inlineStr"/>
+      <c r="H23" s="15" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" s="10" t="n">
+      <c r="A24" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="11" t="inlineStr">
+      <c r="B24" s="12" t="inlineStr">
         <is>
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="10" t="inlineStr"/>
-      <c r="D24" s="14" t="inlineStr"/>
-      <c r="E24" s="10" t="inlineStr"/>
+      <c r="C24" s="11" t="inlineStr"/>
+      <c r="D24" s="15" t="inlineStr"/>
+      <c r="E24" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F24" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="G24" s="10" t="inlineStr"/>
+      <c r="G24" s="11" t="inlineStr"/>
+      <c r="H24" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="10" t="n">
+      <c r="A25" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="11" t="inlineStr">
+      <c r="B25" s="12" t="inlineStr">
         <is>
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C25" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D25" s="14" t="inlineStr"/>
-      <c r="E25" s="15" t="inlineStr">
+      <c r="C25" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D25" s="15" t="inlineStr"/>
+      <c r="E25" s="17" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1087,180 +1214,229 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G25" s="15" t="inlineStr">
+      <c r="G25" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H25" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" s="10" t="n">
+      <c r="A26" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="11" t="inlineStr">
+      <c r="B26" s="12" t="inlineStr">
         <is>
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="10" t="inlineStr"/>
-      <c r="D26" s="14" t="inlineStr"/>
-      <c r="E26" s="10" t="inlineStr"/>
-      <c r="F26" s="14" t="inlineStr">
+      <c r="C26" s="11" t="inlineStr"/>
+      <c r="D26" s="15" t="inlineStr"/>
+      <c r="E26" s="11" t="inlineStr"/>
+      <c r="F26" s="15" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G26" s="10" t="inlineStr"/>
+      <c r="G26" s="11" t="inlineStr"/>
+      <c r="H26" s="15" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="10" t="n">
+      <c r="A27" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="11" t="inlineStr">
+      <c r="B27" s="12" t="inlineStr">
         <is>
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="10" t="inlineStr"/>
-      <c r="D27" s="14" t="inlineStr"/>
-      <c r="E27" s="10" t="inlineStr"/>
+      <c r="C27" s="11" t="inlineStr"/>
+      <c r="D27" s="15" t="inlineStr"/>
+      <c r="E27" s="11" t="inlineStr"/>
       <c r="F27" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="G27" s="10" t="inlineStr"/>
+      <c r="G27" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H27" s="15" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="10" t="n">
+      <c r="A28" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="11" t="inlineStr">
+      <c r="B28" s="12" t="inlineStr">
         <is>
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C28" s="10" t="inlineStr"/>
-      <c r="D28" s="14" t="inlineStr"/>
-      <c r="E28" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F28" s="14" t="inlineStr">
+      <c r="C28" s="11" t="inlineStr"/>
+      <c r="D28" s="15" t="inlineStr"/>
+      <c r="E28" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F28" s="15" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G28" s="10" t="inlineStr"/>
+      <c r="G28" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H28" s="15" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="10" t="n">
+      <c r="A29" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="11" t="inlineStr">
+      <c r="B29" s="12" t="inlineStr">
         <is>
           <t>Rafli Febryan</t>
         </is>
       </c>
-      <c r="C29" s="10" t="inlineStr"/>
-      <c r="D29" s="14" t="inlineStr"/>
-      <c r="E29" s="10" t="inlineStr"/>
+      <c r="C29" s="11" t="inlineStr"/>
+      <c r="D29" s="15" t="inlineStr"/>
+      <c r="E29" s="11" t="inlineStr"/>
       <c r="F29" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="G29" s="10" t="inlineStr"/>
+      <c r="G29" s="11" t="inlineStr"/>
+      <c r="H29" s="15" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" s="10" t="n">
+      <c r="A30" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="11" t="inlineStr">
+      <c r="B30" s="12" t="inlineStr">
         <is>
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C30" s="10" t="inlineStr"/>
-      <c r="D30" s="14" t="inlineStr"/>
-      <c r="E30" s="10" t="inlineStr"/>
-      <c r="F30" s="14" t="inlineStr"/>
-      <c r="G30" s="10" t="inlineStr"/>
+      <c r="C30" s="11" t="inlineStr"/>
+      <c r="D30" s="15" t="inlineStr"/>
+      <c r="E30" s="11" t="inlineStr"/>
+      <c r="F30" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G30" s="11" t="inlineStr"/>
+      <c r="H30" s="15" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="10" t="n">
+      <c r="A31" s="11" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="11" t="inlineStr">
+      <c r="B31" s="12" t="inlineStr">
         <is>
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D31" s="14" t="inlineStr"/>
-      <c r="E31" s="10" t="inlineStr"/>
+      <c r="C31" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D31" s="15" t="inlineStr"/>
+      <c r="E31" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F31" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="G31" s="15" t="inlineStr">
+      <c r="G31" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H31" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" s="10" t="n">
+      <c r="A32" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="11" t="inlineStr">
+      <c r="B32" s="12" t="inlineStr">
         <is>
           <t>Salsabila Nur Fairuz</t>
         </is>
       </c>
-      <c r="C32" s="10" t="inlineStr"/>
-      <c r="D32" s="14" t="inlineStr"/>
-      <c r="E32" s="10" t="inlineStr"/>
-      <c r="F32" s="14" t="inlineStr"/>
-      <c r="G32" s="10" t="inlineStr"/>
+      <c r="C32" s="11" t="inlineStr"/>
+      <c r="D32" s="15" t="inlineStr"/>
+      <c r="E32" s="11" t="inlineStr"/>
+      <c r="F32" s="15" t="inlineStr"/>
+      <c r="G32" s="11" t="inlineStr"/>
+      <c r="H32" s="15" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="10" t="n">
+      <c r="A33" s="11" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="11" t="inlineStr">
+      <c r="B33" s="12" t="inlineStr">
         <is>
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="10" t="inlineStr"/>
-      <c r="D33" s="14" t="inlineStr"/>
-      <c r="E33" s="10" t="inlineStr"/>
+      <c r="C33" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D33" s="15" t="inlineStr"/>
+      <c r="E33" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F33" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="G33" s="10" t="inlineStr"/>
+      <c r="G33" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H33" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="10" t="n">
+      <c r="A34" s="11" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="11" t="inlineStr">
+      <c r="B34" s="12" t="inlineStr">
         <is>
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="10" t="inlineStr"/>
-      <c r="D34" s="14" t="inlineStr"/>
-      <c r="E34" s="15" t="inlineStr">
+      <c r="C34" s="11" t="inlineStr"/>
+      <c r="D34" s="15" t="inlineStr"/>
+      <c r="E34" s="17" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1270,24 +1446,25 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G34" s="10" t="inlineStr"/>
+      <c r="G34" s="11" t="inlineStr"/>
+      <c r="H34" s="15" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
-      <c r="A35" s="10" t="n">
+      <c r="A35" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="11" t="inlineStr">
+      <c r="B35" s="12" t="inlineStr">
         <is>
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C35" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D35" s="14" t="inlineStr"/>
-      <c r="E35" s="15" t="inlineStr">
+      <c r="C35" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D35" s="15" t="inlineStr"/>
+      <c r="E35" s="17" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1297,49 +1474,68 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G35" s="15" t="inlineStr">
+      <c r="G35" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H35" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
-      <c r="A36" s="10" t="n">
+      <c r="A36" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="11" t="inlineStr">
+      <c r="B36" s="12" t="inlineStr">
         <is>
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C36" s="10" t="inlineStr"/>
-      <c r="D36" s="14" t="inlineStr"/>
-      <c r="E36" s="10" t="inlineStr"/>
+      <c r="C36" s="11" t="inlineStr"/>
+      <c r="D36" s="15" t="inlineStr"/>
+      <c r="E36" s="11" t="inlineStr"/>
       <c r="F36" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="G36" s="10" t="inlineStr"/>
+      <c r="G36" s="11" t="inlineStr"/>
+      <c r="H36" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
-      <c r="A37" s="10" t="n">
+      <c r="A37" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="11" t="inlineStr">
+      <c r="B37" s="12" t="inlineStr">
         <is>
           <t>Yehezkiel Dio Sinolungan</t>
         </is>
       </c>
-      <c r="C37" s="10" t="inlineStr"/>
-      <c r="D37" s="14" t="inlineStr"/>
-      <c r="E37" s="10" t="inlineStr"/>
-      <c r="F37" s="14" t="inlineStr">
+      <c r="C37" s="11" t="inlineStr"/>
+      <c r="D37" s="15" t="inlineStr"/>
+      <c r="E37" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F37" s="15" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G37" s="10" t="inlineStr"/>
+      <c r="G37" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H37" s="15" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -664,14 +664,26 @@
       </c>
       <c r="C3" s="11" t="inlineStr"/>
       <c r="D3" s="15" t="inlineStr"/>
-      <c r="E3" s="11" t="inlineStr"/>
+      <c r="E3" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F3" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="G3" s="11" t="inlineStr"/>
-      <c r="H3" s="15" t="inlineStr"/>
+      <c r="G3" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H3" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -1070,8 +1070,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G19" s="11" t="inlineStr"/>
-      <c r="H19" s="15" t="inlineStr"/>
+      <c r="G19" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H19" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="11" t="n">
@@ -1194,7 +1202,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G24" s="11" t="inlineStr"/>
+      <c r="G24" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H24" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1268,7 +1280,11 @@
       </c>
       <c r="C27" s="11" t="inlineStr"/>
       <c r="D27" s="15" t="inlineStr"/>
-      <c r="E27" s="11" t="inlineStr"/>
+      <c r="E27" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F27" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1459,7 +1475,11 @@
         </is>
       </c>
       <c r="G34" s="11" t="inlineStr"/>
-      <c r="H34" s="15" t="inlineStr"/>
+      <c r="H34" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -724,7 +724,11 @@
       </c>
       <c r="C5" s="11" t="inlineStr"/>
       <c r="D5" s="15" t="inlineStr"/>
-      <c r="E5" s="11" t="inlineStr"/>
+      <c r="E5" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F5" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -774,7 +778,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G7" s="11" t="inlineStr"/>
+      <c r="G7" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H7" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1017,7 +1025,11 @@
       <c r="C17" s="11" t="inlineStr"/>
       <c r="D17" s="15" t="inlineStr"/>
       <c r="E17" s="11" t="inlineStr"/>
-      <c r="F17" s="15" t="inlineStr"/>
+      <c r="F17" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G17" s="11" t="inlineStr"/>
       <c r="H17" s="15" t="inlineStr"/>
     </row>
@@ -1260,14 +1272,26 @@
       </c>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="15" t="inlineStr"/>
-      <c r="E26" s="11" t="inlineStr"/>
+      <c r="E26" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F26" s="15" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G26" s="11" t="inlineStr"/>
-      <c r="H26" s="15" t="inlineStr"/>
+      <c r="G26" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H26" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -1552,7 +1552,11 @@
       </c>
       <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="15" t="inlineStr"/>
-      <c r="E36" s="11" t="inlineStr"/>
+      <c r="E36" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F36" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -696,7 +696,11 @@
       </c>
       <c r="C4" s="11" t="inlineStr"/>
       <c r="D4" s="15" t="inlineStr"/>
-      <c r="E4" s="11" t="inlineStr"/>
+      <c r="E4" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F4" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -772,7 +776,11 @@
       </c>
       <c r="C7" s="11" t="inlineStr"/>
       <c r="D7" s="15" t="inlineStr"/>
-      <c r="E7" s="11" t="inlineStr"/>
+      <c r="E7" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F7" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1076,7 +1084,11 @@
       </c>
       <c r="C19" s="11" t="inlineStr"/>
       <c r="D19" s="15" t="inlineStr"/>
-      <c r="E19" s="11" t="inlineStr"/>
+      <c r="E19" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F19" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -1214,7 +1214,11 @@
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="11" t="inlineStr"/>
+      <c r="C24" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D24" s="15" t="inlineStr"/>
       <c r="E24" s="17" t="inlineStr">
         <is>
@@ -1359,7 +1363,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H28" s="15" t="inlineStr"/>
+      <c r="H28" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -662,7 +662,11 @@
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr"/>
+      <c r="C3" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D3" s="15" t="inlineStr"/>
       <c r="E3" s="17" t="inlineStr">
         <is>
@@ -694,7 +698,11 @@
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr"/>
+      <c r="C4" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D4" s="15" t="inlineStr"/>
       <c r="E4" s="17" t="inlineStr">
         <is>
@@ -726,7 +734,11 @@
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr"/>
+      <c r="C5" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D5" s="15" t="inlineStr"/>
       <c r="E5" s="17" t="inlineStr">
         <is>
@@ -774,7 +786,11 @@
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr"/>
+      <c r="C7" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D7" s="15" t="inlineStr"/>
       <c r="E7" s="17" t="inlineStr">
         <is>
@@ -822,7 +838,11 @@
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="11" t="inlineStr"/>
+      <c r="C9" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D9" s="15" t="inlineStr"/>
       <c r="E9" s="17" t="inlineStr">
         <is>
@@ -994,16 +1014,32 @@
           <t>Mohammad Ilham Saputra</t>
         </is>
       </c>
-      <c r="C15" s="11" t="inlineStr"/>
+      <c r="C15" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D15" s="15" t="inlineStr"/>
-      <c r="E15" s="11" t="inlineStr"/>
+      <c r="E15" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F15" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="G15" s="11" t="inlineStr"/>
-      <c r="H15" s="15" t="inlineStr"/>
+      <c r="G15" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H15" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="11" t="n">
@@ -1050,7 +1086,11 @@
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C18" s="11" t="inlineStr"/>
+      <c r="C18" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D18" s="15" t="inlineStr"/>
       <c r="E18" s="17" t="inlineStr">
         <is>
@@ -1082,7 +1122,11 @@
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="11" t="inlineStr"/>
+      <c r="C19" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D19" s="15" t="inlineStr"/>
       <c r="E19" s="17" t="inlineStr">
         <is>
@@ -1185,7 +1229,11 @@
       <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="15" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
-      <c r="F22" s="15" t="inlineStr"/>
+      <c r="F22" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G22" s="11" t="inlineStr"/>
       <c r="H22" s="15" t="inlineStr"/>
     </row>
@@ -1286,7 +1334,11 @@
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="11" t="inlineStr"/>
+      <c r="C26" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D26" s="15" t="inlineStr"/>
       <c r="E26" s="17" t="inlineStr">
         <is>
@@ -1318,7 +1370,11 @@
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="11" t="inlineStr"/>
+      <c r="C27" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D27" s="15" t="inlineStr"/>
       <c r="E27" s="17" t="inlineStr">
         <is>
@@ -1615,7 +1671,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H37" s="15" t="inlineStr"/>
+      <c r="H37" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -1053,7 +1053,11 @@
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="15" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
-      <c r="F16" s="15" t="inlineStr"/>
+      <c r="F16" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G16" s="11" t="inlineStr"/>
       <c r="H16" s="15" t="inlineStr"/>
     </row>
@@ -1456,7 +1460,11 @@
       </c>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="15" t="inlineStr"/>
-      <c r="E30" s="11" t="inlineStr"/>
+      <c r="E30" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F30" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -1253,7 +1253,11 @@
       <c r="C23" s="11" t="inlineStr"/>
       <c r="D23" s="15" t="inlineStr"/>
       <c r="E23" s="11" t="inlineStr"/>
-      <c r="F23" s="15" t="inlineStr"/>
+      <c r="F23" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G23" s="11" t="inlineStr"/>
       <c r="H23" s="15" t="inlineStr"/>
     </row>
@@ -1521,7 +1525,11 @@
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="15" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
-      <c r="F32" s="15" t="inlineStr"/>
+      <c r="F32" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G32" s="11" t="inlineStr"/>
       <c r="H32" s="15" t="inlineStr"/>
     </row>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -667,7 +667,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D3" s="15" t="inlineStr"/>
+      <c r="D3" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E3" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -703,7 +707,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D4" s="15" t="inlineStr"/>
+      <c r="D4" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E4" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -739,7 +747,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D5" s="15" t="inlineStr"/>
+      <c r="D5" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E5" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -895,7 +907,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D11" s="15" t="inlineStr"/>
+      <c r="D11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E11" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1019,7 +1035,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D15" s="15" t="inlineStr"/>
+      <c r="D15" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E15" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1095,7 +1115,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D18" s="15" t="inlineStr"/>
+      <c r="D18" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E18" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1167,7 +1191,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D20" s="15" t="inlineStr"/>
+      <c r="D20" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E20" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1491,7 +1519,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D31" s="15" t="inlineStr"/>
+      <c r="D31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E31" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1579,7 +1611,11 @@
         </is>
       </c>
       <c r="C34" s="11" t="inlineStr"/>
-      <c r="D34" s="15" t="inlineStr"/>
+      <c r="D34" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E34" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1611,7 +1647,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D35" s="15" t="inlineStr"/>
+      <c r="D35" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E35" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1643,7 +1683,11 @@
         </is>
       </c>
       <c r="C36" s="11" t="inlineStr"/>
-      <c r="D36" s="15" t="inlineStr"/>
+      <c r="D36" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E36" s="17" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -963,7 +963,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D13" s="15" t="inlineStr"/>
+      <c r="D13" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E13" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1438,7 +1442,11 @@
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C28" s="11" t="inlineStr"/>
+      <c r="C28" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D28" s="15" t="inlineStr"/>
       <c r="E28" s="17" t="inlineStr">
         <is>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -803,7 +803,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D7" s="15" t="inlineStr"/>
+      <c r="D7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -855,7 +859,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D9" s="15" t="inlineStr"/>
+      <c r="D9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1159,7 +1167,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D19" s="15" t="inlineStr"/>
+      <c r="D19" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E19" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1343,7 +1355,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D25" s="15" t="inlineStr"/>
+      <c r="D25" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E25" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1379,7 +1395,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D26" s="15" t="inlineStr"/>
+      <c r="D26" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E26" s="17" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -803,7 +803,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D7" s="15" t="inlineStr"/>
+      <c r="D7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -855,7 +859,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D9" s="15" t="inlineStr"/>
+      <c r="D9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -963,7 +971,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D13" s="15" t="inlineStr"/>
+      <c r="D13" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E13" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1155,7 +1167,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D19" s="15" t="inlineStr"/>
+      <c r="D19" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E19" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1339,7 +1355,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D25" s="15" t="inlineStr"/>
+      <c r="D25" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E25" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1375,7 +1395,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D26" s="15" t="inlineStr"/>
+      <c r="D26" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E26" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1438,7 +1462,11 @@
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C28" s="11" t="inlineStr"/>
+      <c r="C28" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D28" s="15" t="inlineStr"/>
       <c r="E28" s="17" t="inlineStr">
         <is>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -1607,7 +1607,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D33" s="15" t="inlineStr"/>
+      <c r="D33" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E33" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1638,7 +1642,11 @@
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="11" t="inlineStr"/>
+      <c r="C34" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D34" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -1011,7 +1011,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D14" s="15" t="inlineStr"/>
+      <c r="D14" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E14" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1319,7 +1323,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D24" s="15" t="inlineStr"/>
+      <c r="D24" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E24" s="17" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -839,7 +839,11 @@
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr"/>
-      <c r="D8" s="15" t="inlineStr"/>
+      <c r="D8" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E8" s="11" t="inlineStr"/>
       <c r="F8" s="15" t="inlineStr"/>
       <c r="G8" s="11" t="inlineStr"/>
@@ -1108,7 +1112,11 @@
       </c>
       <c r="C17" s="11" t="inlineStr"/>
       <c r="D17" s="15" t="inlineStr"/>
-      <c r="E17" s="11" t="inlineStr"/>
+      <c r="E17" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F17" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -1678,7 +1678,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G34" s="11" t="inlineStr"/>
+      <c r="G34" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H34" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -1738,7 +1738,11 @@
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C36" s="11" t="inlineStr"/>
+      <c r="C36" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D36" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1754,7 +1758,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G36" s="11" t="inlineStr"/>
+      <c r="G36" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H36" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -1599,7 +1599,11 @@
         </is>
       </c>
       <c r="C32" s="11" t="inlineStr"/>
-      <c r="D32" s="15" t="inlineStr"/>
+      <c r="D32" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E32" s="11" t="inlineStr"/>
       <c r="F32" s="16" t="inlineStr">
         <is>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11520" yWindow="12" windowWidth="11484" windowHeight="10500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -70,7 +70,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -104,19 +104,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -187,38 +174,36 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -567,7 +552,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:H37"/>
+      <selection activeCell="G10" sqref="A1:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -662,7 +647,7 @@
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="17" t="inlineStr">
+      <c r="C3" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -672,7 +657,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E3" s="17" t="inlineStr">
+      <c r="E3" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -682,7 +667,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G3" s="17" t="inlineStr">
+      <c r="G3" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -702,7 +687,7 @@
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="17" t="inlineStr">
+      <c r="C4" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -712,7 +697,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E4" s="17" t="inlineStr">
+      <c r="E4" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -722,7 +707,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G4" s="17" t="inlineStr">
+      <c r="G4" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -742,7 +727,7 @@
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="17" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -752,7 +737,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E5" s="17" t="inlineStr">
+      <c r="E5" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -762,7 +747,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G5" s="17" t="inlineStr">
+      <c r="G5" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -783,11 +768,11 @@
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr"/>
-      <c r="D6" s="15" t="inlineStr"/>
+      <c r="D6" s="17" t="inlineStr"/>
       <c r="E6" s="11" t="inlineStr"/>
-      <c r="F6" s="15" t="inlineStr"/>
+      <c r="F6" s="17" t="inlineStr"/>
       <c r="G6" s="11" t="inlineStr"/>
-      <c r="H6" s="15" t="inlineStr"/>
+      <c r="H6" s="17" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="11" t="n">
@@ -798,7 +783,7 @@
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="17" t="inlineStr">
+      <c r="C7" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -808,7 +793,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E7" s="17" t="inlineStr">
+      <c r="E7" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -818,7 +803,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G7" s="17" t="inlineStr">
+      <c r="G7" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -845,9 +830,9 @@
         </is>
       </c>
       <c r="E8" s="11" t="inlineStr"/>
-      <c r="F8" s="15" t="inlineStr"/>
+      <c r="F8" s="17" t="inlineStr"/>
       <c r="G8" s="11" t="inlineStr"/>
-      <c r="H8" s="15" t="inlineStr"/>
+      <c r="H8" s="17" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="11" t="n">
@@ -858,7 +843,7 @@
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="17" t="inlineStr">
+      <c r="C9" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -868,7 +853,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E9" s="17" t="inlineStr">
+      <c r="E9" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -878,7 +863,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G9" s="17" t="inlineStr">
+      <c r="G9" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -899,11 +884,11 @@
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr"/>
-      <c r="D10" s="15" t="inlineStr"/>
+      <c r="D10" s="17" t="inlineStr"/>
       <c r="E10" s="11" t="inlineStr"/>
-      <c r="F10" s="15" t="inlineStr"/>
+      <c r="F10" s="17" t="inlineStr"/>
       <c r="G10" s="11" t="inlineStr"/>
-      <c r="H10" s="15" t="inlineStr"/>
+      <c r="H10" s="17" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="11" t="n">
@@ -914,7 +899,7 @@
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="17" t="inlineStr">
+      <c r="C11" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -924,7 +909,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E11" s="17" t="inlineStr">
+      <c r="E11" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -934,7 +919,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G11" s="17" t="inlineStr">
+      <c r="G11" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -955,11 +940,11 @@
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr"/>
-      <c r="D12" s="15" t="inlineStr"/>
+      <c r="D12" s="17" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
-      <c r="F12" s="15" t="inlineStr"/>
+      <c r="F12" s="17" t="inlineStr"/>
       <c r="G12" s="11" t="inlineStr"/>
-      <c r="H12" s="15" t="inlineStr"/>
+      <c r="H12" s="17" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="11" t="n">
@@ -970,7 +955,7 @@
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C13" s="17" t="inlineStr">
+      <c r="C13" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -980,7 +965,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E13" s="17" t="inlineStr">
+      <c r="E13" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -990,7 +975,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G13" s="17" t="inlineStr">
+      <c r="G13" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1010,7 +995,7 @@
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="17" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1020,17 +1005,17 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E14" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F14" s="15" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F14" s="17" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G14" s="17" t="inlineStr">
+      <c r="G14" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1050,7 +1035,7 @@
           <t>Mohammad Ilham Saputra</t>
         </is>
       </c>
-      <c r="C15" s="17" t="inlineStr">
+      <c r="C15" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1060,7 +1045,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E15" s="17" t="inlineStr">
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1070,7 +1055,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G15" s="17" t="inlineStr">
+      <c r="G15" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1091,7 +1076,7 @@
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr"/>
-      <c r="D16" s="15" t="inlineStr"/>
+      <c r="D16" s="17" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
       <c r="F16" s="16" t="inlineStr">
         <is>
@@ -1099,7 +1084,7 @@
         </is>
       </c>
       <c r="G16" s="11" t="inlineStr"/>
-      <c r="H16" s="15" t="inlineStr"/>
+      <c r="H16" s="17" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="11" t="n">
@@ -1111,8 +1096,8 @@
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr"/>
-      <c r="D17" s="15" t="inlineStr"/>
-      <c r="E17" s="17" t="inlineStr">
+      <c r="D17" s="17" t="inlineStr"/>
+      <c r="E17" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1123,7 +1108,7 @@
         </is>
       </c>
       <c r="G17" s="11" t="inlineStr"/>
-      <c r="H17" s="15" t="inlineStr"/>
+      <c r="H17" s="17" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="11" t="n">
@@ -1134,7 +1119,7 @@
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C18" s="17" t="inlineStr">
+      <c r="C18" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1144,7 +1129,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E18" s="17" t="inlineStr">
+      <c r="E18" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1154,7 +1139,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G18" s="17" t="inlineStr">
+      <c r="G18" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1174,7 +1159,7 @@
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="17" t="inlineStr">
+      <c r="C19" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1184,7 +1169,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E19" s="17" t="inlineStr">
+      <c r="E19" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1194,7 +1179,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G19" s="17" t="inlineStr">
+      <c r="G19" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1214,7 +1199,7 @@
           <t>Muhammad Ilham Dzaki</t>
         </is>
       </c>
-      <c r="C20" s="17" t="inlineStr">
+      <c r="C20" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1224,7 +1209,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E20" s="17" t="inlineStr">
+      <c r="E20" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1234,7 +1219,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G20" s="17" t="inlineStr">
+      <c r="G20" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1254,13 +1239,13 @@
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C21" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D21" s="15" t="inlineStr"/>
-      <c r="E21" s="17" t="inlineStr">
+      <c r="C21" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D21" s="17" t="inlineStr"/>
+      <c r="E21" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1287,7 +1272,7 @@
         </is>
       </c>
       <c r="C22" s="11" t="inlineStr"/>
-      <c r="D22" s="15" t="inlineStr"/>
+      <c r="D22" s="17" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="16" t="inlineStr">
         <is>
@@ -1295,7 +1280,7 @@
         </is>
       </c>
       <c r="G22" s="11" t="inlineStr"/>
-      <c r="H22" s="15" t="inlineStr"/>
+      <c r="H22" s="17" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="11" t="n">
@@ -1307,7 +1292,7 @@
         </is>
       </c>
       <c r="C23" s="11" t="inlineStr"/>
-      <c r="D23" s="15" t="inlineStr"/>
+      <c r="D23" s="17" t="inlineStr"/>
       <c r="E23" s="11" t="inlineStr"/>
       <c r="F23" s="16" t="inlineStr">
         <is>
@@ -1315,7 +1300,7 @@
         </is>
       </c>
       <c r="G23" s="11" t="inlineStr"/>
-      <c r="H23" s="15" t="inlineStr"/>
+      <c r="H23" s="17" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="11" t="n">
@@ -1326,7 +1311,7 @@
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="17" t="inlineStr">
+      <c r="C24" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1336,7 +1321,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E24" s="17" t="inlineStr">
+      <c r="E24" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1346,7 +1331,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G24" s="17" t="inlineStr">
+      <c r="G24" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1366,7 +1351,7 @@
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C25" s="17" t="inlineStr">
+      <c r="C25" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1376,7 +1361,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E25" s="17" t="inlineStr">
+      <c r="E25" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1386,7 +1371,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G25" s="17" t="inlineStr">
+      <c r="G25" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1406,7 +1391,7 @@
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="17" t="inlineStr">
+      <c r="C26" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1416,17 +1401,17 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E26" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F26" s="15" t="inlineStr">
+      <c r="E26" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F26" s="17" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G26" s="17" t="inlineStr">
+      <c r="G26" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1446,13 +1431,13 @@
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D27" s="15" t="inlineStr"/>
-      <c r="E27" s="17" t="inlineStr">
+      <c r="C27" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D27" s="17" t="inlineStr"/>
+      <c r="E27" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1462,12 +1447,12 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G27" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H27" s="15" t="inlineStr"/>
+      <c r="G27" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H27" s="17" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="11" t="n">
@@ -1478,23 +1463,23 @@
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C28" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D28" s="15" t="inlineStr"/>
-      <c r="E28" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F28" s="15" t="inlineStr">
+      <c r="C28" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D28" s="17" t="inlineStr"/>
+      <c r="E28" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F28" s="17" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G28" s="17" t="inlineStr">
+      <c r="G28" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1515,7 +1500,7 @@
         </is>
       </c>
       <c r="C29" s="11" t="inlineStr"/>
-      <c r="D29" s="15" t="inlineStr"/>
+      <c r="D29" s="17" t="inlineStr"/>
       <c r="E29" s="11" t="inlineStr"/>
       <c r="F29" s="16" t="inlineStr">
         <is>
@@ -1523,7 +1508,7 @@
         </is>
       </c>
       <c r="G29" s="11" t="inlineStr"/>
-      <c r="H29" s="15" t="inlineStr"/>
+      <c r="H29" s="17" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="11" t="n">
@@ -1535,8 +1520,8 @@
         </is>
       </c>
       <c r="C30" s="11" t="inlineStr"/>
-      <c r="D30" s="15" t="inlineStr"/>
-      <c r="E30" s="17" t="inlineStr">
+      <c r="D30" s="17" t="inlineStr"/>
+      <c r="E30" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1547,7 +1532,7 @@
         </is>
       </c>
       <c r="G30" s="11" t="inlineStr"/>
-      <c r="H30" s="15" t="inlineStr"/>
+      <c r="H30" s="17" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="11" t="n">
@@ -1558,7 +1543,7 @@
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="17" t="inlineStr">
+      <c r="C31" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1568,7 +1553,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E31" s="17" t="inlineStr">
+      <c r="E31" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1578,7 +1563,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G31" s="17" t="inlineStr">
+      <c r="G31" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1611,7 +1596,7 @@
         </is>
       </c>
       <c r="G32" s="11" t="inlineStr"/>
-      <c r="H32" s="15" t="inlineStr"/>
+      <c r="H32" s="17" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="11" t="n">
@@ -1622,7 +1607,7 @@
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="17" t="inlineStr">
+      <c r="C33" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1632,7 +1617,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E33" s="17" t="inlineStr">
+      <c r="E33" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1642,7 +1627,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G33" s="17" t="inlineStr">
+      <c r="G33" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1662,7 +1647,7 @@
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="17" t="inlineStr">
+      <c r="C34" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1672,7 +1657,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E34" s="17" t="inlineStr">
+      <c r="E34" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1682,7 +1667,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G34" s="17" t="inlineStr">
+      <c r="G34" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1702,7 +1687,7 @@
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C35" s="17" t="inlineStr">
+      <c r="C35" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1712,7 +1697,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E35" s="17" t="inlineStr">
+      <c r="E35" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1722,7 +1707,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G35" s="17" t="inlineStr">
+      <c r="G35" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1742,7 +1727,7 @@
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C36" s="17" t="inlineStr">
+      <c r="C36" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1752,7 +1737,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E36" s="17" t="inlineStr">
+      <c r="E36" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1762,7 +1747,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G36" s="17" t="inlineStr">
+      <c r="G36" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1783,18 +1768,18 @@
         </is>
       </c>
       <c r="C37" s="11" t="inlineStr"/>
-      <c r="D37" s="15" t="inlineStr"/>
-      <c r="E37" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F37" s="15" t="inlineStr">
+      <c r="D37" s="17" t="inlineStr"/>
+      <c r="E37" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F37" s="17" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G37" s="17" t="inlineStr">
+      <c r="G37" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -940,7 +940,11 @@
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr"/>
-      <c r="D12" s="17" t="inlineStr"/>
+      <c r="D12" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E12" s="11" t="inlineStr"/>
       <c r="F12" s="17" t="inlineStr"/>
       <c r="G12" s="11" t="inlineStr"/>
@@ -1076,7 +1080,11 @@
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr"/>
-      <c r="D16" s="17" t="inlineStr"/>
+      <c r="D16" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E16" s="11" t="inlineStr"/>
       <c r="F16" s="16" t="inlineStr">
         <is>
@@ -1096,7 +1104,11 @@
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr"/>
-      <c r="D17" s="17" t="inlineStr"/>
+      <c r="D17" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E17" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1468,7 +1480,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D28" s="17" t="inlineStr"/>
+      <c r="D28" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E28" s="15" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -1448,7 +1448,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D27" s="17" t="inlineStr"/>
+      <c r="D27" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E27" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1536,7 +1540,11 @@
         </is>
       </c>
       <c r="C30" s="11" t="inlineStr"/>
-      <c r="D30" s="17" t="inlineStr"/>
+      <c r="D30" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E30" s="15" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -1085,13 +1085,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E16" s="11" t="inlineStr"/>
+      <c r="E16" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F16" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="G16" s="11" t="inlineStr"/>
+      <c r="G16" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H16" s="17" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -1111,7 +1111,11 @@
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C17" s="11" t="inlineStr"/>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D17" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1127,8 +1131,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G17" s="11" t="inlineStr"/>
-      <c r="H17" s="17" t="inlineStr"/>
+      <c r="G17" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H17" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -770,7 +770,11 @@
       <c r="C6" s="11" t="inlineStr"/>
       <c r="D6" s="17" t="inlineStr"/>
       <c r="E6" s="11" t="inlineStr"/>
-      <c r="F6" s="17" t="inlineStr"/>
+      <c r="F6" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G6" s="11" t="inlineStr"/>
       <c r="H6" s="17" t="inlineStr"/>
     </row>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-9 (20 September 2021 - 26 September 2021).xlsx
@@ -1115,11 +1115,7 @@
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C17" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C17" s="11" t="inlineStr"/>
       <c r="D17" s="16" t="inlineStr">
         <is>
           <t>ü</t>
